--- a/input_data_new.xlsx
+++ b/input_data_new.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavan\Development\Hito\my-pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronya\Development\Hito\pdf-creator-elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E121A24-8D85-442B-AC21-B0B8F6507BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262463C8-F1DD-45B8-A49F-6B69A5D77364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21AE89A4-5EBE-41B1-9EA3-708382258B15}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21AE89A4-5EBE-41B1-9EA3-708382258B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -42,42 +45,9 @@
     <t>קלפיות החלפה אם צריך</t>
   </si>
   <si>
-    <t>רון ילנסקי</t>
-  </si>
-  <si>
-    <t>אבי ביטון</t>
-  </si>
-  <si>
-    <t>משה מלך</t>
-  </si>
-  <si>
     <t>רחוב ועיר</t>
   </si>
   <si>
-    <t>קשת 6,חיפה</t>
-  </si>
-  <si>
-    <t>לוינסקי 6,רמת גן</t>
-  </si>
-  <si>
-    <t>טוביה 22,באר שבע</t>
-  </si>
-  <si>
-    <t>שם מיקום קלפי\ריכוז + כתובת ועיר</t>
-  </si>
-  <si>
-    <t>בב"ס ממלכתי ע"ש רוטשילד. ברחוב רוטשילד 24 תל אביב.</t>
-  </si>
-  <si>
-    <t>בב"ס ממלכתי ע"ש פולקלור. ברחוב דרך פולקלור 22 באר שבע.</t>
-  </si>
-  <si>
-    <t>בב"ס ממלכתי ע"ש אוסישקין. ברחוב אוסישקין 65 רמת השרון.</t>
-  </si>
-  <si>
-    <t>22.0, 22.3, 22.6</t>
-  </si>
-  <si>
     <t>תפקיד</t>
   </si>
   <si>
@@ -96,41 +66,433 @@
     <t>אב בית וסדרן</t>
   </si>
   <si>
-    <t>איתמר רובינסקי</t>
-  </si>
-  <si>
-    <t>זלמן שזר 55</t>
-  </si>
-  <si>
-    <t>בב"ס ממלכתי ע"ש קפלנסקי. ברחוב דרך פולקלור 22 באר שבע.</t>
-  </si>
-  <si>
-    <t>תום בנאדו</t>
-  </si>
-  <si>
-    <t>שדרות הנשיא 35</t>
-  </si>
-  <si>
-    <t>בב"ס ממלכתי ע"ש אהוד. ברחוב רוטשילד 24 תל אביב.</t>
-  </si>
-  <si>
     <t>עיר</t>
   </si>
   <si>
     <t>רמת השרון</t>
+  </si>
+  <si>
+    <t>רחוב ריכוז/קלפי</t>
+  </si>
+  <si>
+    <t>שם מיקום קלפי\ריכוז + כתובת</t>
+  </si>
+  <si>
+    <t>שרף 43, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8/2, הרצליה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9, ראש העין</t>
+  </si>
+  <si>
+    <t>אופיר 25, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , </t>
+  </si>
+  <si>
+    <t>שח"ל 18, רמת השרון</t>
+  </si>
+  <si>
+    <t>שמואל הנגיד 72, רמת השרון</t>
+  </si>
+  <si>
+    <t>רקפת 43, רמת השרון</t>
+  </si>
+  <si>
+    <t>בית שמאי 10, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , רעננה</t>
+  </si>
+  <si>
+    <t>מנחם בגין 9, רמת השרון</t>
+  </si>
+  <si>
+    <t>מנחם בגין 2, רמת השרון</t>
+  </si>
+  <si>
+    <t>שמואל הנגיד 4, רמת השרון</t>
+  </si>
+  <si>
+    <t>אורן 32, חריש</t>
+  </si>
+  <si>
+    <t>מודיעין 56, רמת השרון</t>
+  </si>
+  <si>
+    <t>החלוץ 45, רמת השרון</t>
+  </si>
+  <si>
+    <t>אלון יגאל 4, פתח תקווה</t>
+  </si>
+  <si>
+    <t>חטיבת אלכסנדרוני 2 דירה 703, רמת השרון</t>
+  </si>
+  <si>
+    <t>בגין מנחם 7, רמת השרון</t>
+  </si>
+  <si>
+    <t>אלון יגאל 4, רמת השרון</t>
+  </si>
+  <si>
+    <t>השח"ל 28, רמת השרון</t>
+  </si>
+  <si>
+    <t>החלוץ 13, רמת השרון</t>
+  </si>
+  <si>
+    <t>חטיבת אלכסנדרוני 1/9, רמת השרון</t>
+  </si>
+  <si>
+    <t>העבודה 12, רמת השרון</t>
+  </si>
+  <si>
+    <t>המלכים 128, רמת השרון</t>
+  </si>
+  <si>
+    <t>מוריה 22, רמת השרון</t>
+  </si>
+  <si>
+    <t>פרנקפורטר 5, רמת השרון</t>
+  </si>
+  <si>
+    <t>סוקולוב 90, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/6, הרצליה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , ערערה</t>
+  </si>
+  <si>
+    <t>מרדכי 11, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2, נתניה</t>
+  </si>
+  <si>
+    <t>רבי עקיבא 5, הרצליה</t>
+  </si>
+  <si>
+    <t>ארלוזורוב 5, רמת השרון</t>
+  </si>
+  <si>
+    <t>מנחם בגין 8, רמת השרון</t>
+  </si>
+  <si>
+    <t>ארלוזורוב 31, כפר סבא</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13, רמת השרון</t>
+  </si>
+  <si>
+    <t>התאנה 10, רמת השרון</t>
+  </si>
+  <si>
+    <t>שמואל הנגיד 90, רמת השרון</t>
+  </si>
+  <si>
+    <t>ברק 6, רמת השרון</t>
+  </si>
+  <si>
+    <t>הרב קוק 17, רמת השרון</t>
+  </si>
+  <si>
+    <t>תחכמוני 5, רמת השרון</t>
+  </si>
+  <si>
+    <t>תחכמוני 5/9, רמת השרון</t>
+  </si>
+  <si>
+    <t>החלוץ 46, רמת השרון</t>
+  </si>
+  <si>
+    <t>חטיבת אלכסנדרוני 3, רמת השרון</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , פתח תקווה</t>
+  </si>
+  <si>
+    <t>החלוץ 44, רמת השרון</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>מתנס גולן</t>
+  </si>
+  <si>
+    <t>מתנ"ס קרית הצעירים</t>
+  </si>
+  <si>
+    <t>בי"ס רמב"ם (חדש)</t>
+  </si>
+  <si>
+    <t>בי"ס קרית יערים - אגף דרומי</t>
+  </si>
+  <si>
+    <t>בי"ס קרית יערים</t>
+  </si>
+  <si>
+    <t>בי"ס עלומים</t>
+  </si>
+  <si>
+    <t>בי"ס עומר</t>
+  </si>
+  <si>
+    <t>בי"ס ע"ש קלמן</t>
+  </si>
+  <si>
+    <t>בי"ס ע"ש מאיר דורון</t>
+  </si>
+  <si>
+    <t>בי"ס ע"ש יגאל אלון</t>
+  </si>
+  <si>
+    <t>בי"ס ממלכתי אוסישקין</t>
+  </si>
+  <si>
+    <t>בי"ס הדר</t>
+  </si>
+  <si>
+    <t>בי"ס גולן</t>
+  </si>
+  <si>
+    <t>בי"ס אמירים</t>
+  </si>
+  <si>
+    <t>בי"ס אורנים</t>
+  </si>
+  <si>
+    <t>בי"ס אור השחר</t>
+  </si>
+  <si>
+    <t>בי"ס אוסישקין-אגף מערבי</t>
+  </si>
+  <si>
+    <t>הבנים,46</t>
+  </si>
+  <si>
+    <t>הבנים,46א</t>
+  </si>
+  <si>
+    <t>בית השואבה,7</t>
+  </si>
+  <si>
+    <t>אלון יגאל,4</t>
+  </si>
+  <si>
+    <t>יהודה הלוי,5</t>
+  </si>
+  <si>
+    <t>יצחק אלחנן,11</t>
+  </si>
+  <si>
+    <t>יצחק אלחנן,13</t>
+  </si>
+  <si>
+    <t>טהון,5</t>
+  </si>
+  <si>
+    <t>אוסישקין,7</t>
+  </si>
+  <si>
+    <t>הבאר,1</t>
+  </si>
+  <si>
+    <t>אוסישקין,65</t>
+  </si>
+  <si>
+    <t>אוסישקין,101</t>
+  </si>
+  <si>
+    <t>רמז,8</t>
+  </si>
+  <si>
+    <t>הרב אורבוך,30</t>
+  </si>
+  <si>
+    <t>תרפ"ד,45</t>
+  </si>
+  <si>
+    <t>השופטים,32</t>
+  </si>
+  <si>
+    <t>10, 20, 30</t>
+  </si>
+  <si>
+    <t>קולט</t>
+  </si>
+  <si>
+    <t>ישראל ישראלי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,14 +512,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CB43AB71-504A-454C-AE71-B31D3A90D8B8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,40 +854,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05DE462-1D44-4049-A235-280D55EF26CD}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -511,143 +897,1522 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
         <v>123456789</v>
       </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F3">
         <v>115566889</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F4">
         <v>112233445</v>
       </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F5">
         <v>223344555</v>
       </c>
-      <c r="G5">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F6">
         <v>234567896</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>123456789</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>123456789</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>123456789</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>123456789</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>123456789</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>123456789</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="F13">
+        <v>123456789</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>123456789</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>123456789</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>123456789</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>123456789</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>123456789</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>123456789</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>123456789</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>123456789</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>123456789</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>123456789</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>123456789</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>123456789</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>123456789</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>123456789</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>123456789</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>123456789</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>123456789</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>123456789</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>123456789</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>123456789</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>123456789</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>123456789</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <v>123456789</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>123456789</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>123456789</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>123456789</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40">
+        <v>123456789</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41">
+        <v>123456789</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42">
+        <v>123456789</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>123456789</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>123456789</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>123456789</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46">
+        <v>123456789</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47">
+        <v>123456789</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>123456789</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>123456789</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>123456789</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>123456789</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>123456789</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/input_data_new.xlsx
+++ b/input_data_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavan\Development\Hito\my-pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348382A-E342-4CC9-A446-6EA12F9B772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0E469C-A890-4D2D-91C0-E2A108CB9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21AE89A4-5EBE-41B1-9EA3-708382258B15}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -162,15 +162,6 @@
     <t>בת ים</t>
   </si>
   <si>
-    <t>ברל כצנלסון 36,רמת השרון</t>
-  </si>
-  <si>
-    <t>ברל כצנלסון 36,כפר סבא</t>
-  </si>
-  <si>
-    <t>ברל כצנלסון 36,בת ים</t>
-  </si>
-  <si>
     <t>מזכיר מחליף</t>
   </si>
   <si>
@@ -235,6 +226,9 @@
   </si>
   <si>
     <t>ישראל ישראלי21</t>
+  </si>
+  <si>
+    <t>כצנלסון 36,רמת השרון</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +663,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1">
         <v>123456788</v>
@@ -702,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
         <v>123456789</v>
@@ -735,10 +729,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1">
         <v>123456790</v>
@@ -767,10 +761,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>123456791</v>
@@ -799,10 +793,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>123456792</v>
@@ -828,13 +822,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>123456793</v>
@@ -866,10 +860,10 @@
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>123456794</v>
@@ -896,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>123456795</v>
@@ -929,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>123456796</v>
@@ -962,10 +956,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
         <v>123456797</v>
@@ -994,10 +988,10 @@
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1">
         <v>123456798</v>
@@ -1026,10 +1020,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>123456799</v>
@@ -1058,10 +1052,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>123456800</v>
@@ -1093,10 +1087,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
         <v>123456801</v>
@@ -1123,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>123456802</v>
@@ -1156,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1">
         <v>123456803</v>
@@ -1189,10 +1183,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>123456804</v>
@@ -1221,10 +1215,10 @@
         <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1">
         <v>123456805</v>
@@ -1253,10 +1247,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
         <v>123456806</v>
@@ -1285,10 +1279,10 @@
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1">
         <v>123456807</v>
@@ -1320,10 +1314,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
         <v>123456808</v>
